--- a/SAP.xlsx
+++ b/SAP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>What are ABAP and SAP?</t>
   </si>
@@ -28,16 +28,31 @@
     <t>Not answered</t>
   </si>
   <si>
+    <t>Solved (Permanently)</t>
+  </si>
+  <si>
     <t>How should I start learning about SAP?</t>
   </si>
   <si>
+    <t>Solved Remotely (Permanently)</t>
+  </si>
+  <si>
     <t>Helicopterview of ABAP</t>
   </si>
   <si>
+    <t>Not Solved (Too Costly)</t>
+  </si>
+  <si>
     <t>How to get rows count of internal table in abap?</t>
   </si>
   <si>
+    <t>Solved Remotely (Work Around)</t>
+  </si>
+  <si>
     <t>Can SAP work with Python?</t>
+  </si>
+  <si>
+    <t>Solved (Work Around)</t>
   </si>
   <si>
     <t>Step by step tutorial to use SAP. net Connector with VS 2008</t>
@@ -375,13 +390,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,10 +409,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -408,10 +426,13 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -422,10 +443,13 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -436,10 +460,13 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -450,10 +477,13 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -464,10 +494,13 @@
       <c r="D6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -477,6 +510,9 @@
       </c>
       <c r="D7" t="s">
         <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/SAP.xlsx
+++ b/SAP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>What are ABAP and SAP?</t>
   </si>
@@ -25,40 +25,158 @@
     <t>Software</t>
   </si>
   <si>
+    <t xml:space="preserve">
+SAP is a full Enterprise Resource Planning (ERP) system and business platform.  SAP is the company, that produces the business platform and the associated modules (financials, general ledger, &amp;c).
+ABAP is the primary programming language used to write SAP software and customizations.  It would do it injustice to think of it as COBOL and SQL on steroids, but that gives you an idea.  ABAP runs within the SAP system.
+SAP and ABAP abstract the DB and run atop various underlying DBMSs.
+SAP produces other things as well and even publicly says they dabble in Java and even produce a J2EE container, but tried-and-true SAP is ABAP through-and-through.
+</t>
+  </si>
+  <si>
+    <t>Solved Remotely (Work Around)</t>
+  </si>
+  <si>
+    <t>How should I start learning about SAP?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+First, SAP is so vast you will never be able to know every part of it. There are so many functionnal subjects and technologies that this is mind-numbing.
+Courses can be used either for a first introduction (but this is costly for such a use) or for extremely advanced subject (better).
+SAP is a full environment. The code for most of the content is available. Thus, checking how SAP has done something can/may/will help you understand the technology or the subject.
+(Btw, a lot of comments are in German...) in-system transaction se80 is particularly useful in this aspect, as it show all related data to a program.
+Also, SDN is your friend. forum, how-to, white papers are present... it will help you. A few in-system transactions (se83) are to be used as example for coding technics.
+</t>
+  </si>
+  <si>
+    <t>Solved (Work Around)</t>
+  </si>
+  <si>
+    <t>Helicopterview of ABAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Is it (always) compiled?
+ABAP is "compiled" into a sort of byte-code (called "load" for historical reasons) that is then executed by a virtual machine inside the kernel. You can compare this with Java, with one big difference: The load is not machine-independent, but optimized for the target machine type. This means that in a system landscape with several different types of application servers, you might have multiple pre-compiled loads for a single program. Not that you'll ever see any of this - the entire compilation process is handled automatically.
+Typestem : Is it strongly typed? Does it use type inference?
+Strongly typed with a system of generic types on top. Note that there's a complete data dictionary that is integrated into the language - very handy. 
+Inheritance : single / multiple, interface-like structures ?
+Single inheritance. Interfaces are supported, including composite interfaces and implementation component renaming (two interfaces IF_FOO and IF_BAR can both define a method BAZ, and a class implementing both interfaces will then have two methods IF_FOO~BAZ and IF_BAR~BAZ).
+Collections : Has it collections apart from arrays? Has it generic collections? Does it use List comprehension?
+What you know as "array" in other programming languages does not really exist in ABAP - you'll usually use so-called "internal tables" instead. Think database-like structured in-memory tables. There are some ideas of collection classes spread out through different modules, but the canonical way to do this is to use internal tables - define a so called table type of lines that either represent references to instances or structures that contain such a reference. 
+How about (con/contra/in)variance in arrays, returntypes, parametertypes, overriding?
+Arrays: see above. Overriding: You can not change the method signature when implementing interface method or overriding superclass methods. As for the parameters - that depends on whether you transfer data (or data references) or object references. In general, upcasting may happen implicitly while you have to perform the downcasting explicitly.
+Any Exceptionhandling?
+Yes. More than one way - again for the historical reasons (backward compatibility). Class-based exceptions are supported.
+Any build in design by contract support?
+None that I'm aware of.
+Anything remarkable as oposed to other well known languages?
+Lots of stuff. You might want to check http://www.volker-wegert.de/en/node/17 and http://www.volker-wegert.de/en/node/21 for an admittedly biased overview :-)
+</t>
+  </si>
+  <si>
+    <t>Not Solved (Too Costly)</t>
+  </si>
+  <si>
+    <t>How to get rows count of internal table in abap?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+You can use the following function:
+ DESCRIBE TABLE &lt;itab-Name&gt; LINES &lt;variable&gt;
+After the call, variable contains the number of rows of the internal table .
+</t>
+  </si>
+  <si>
+    <t>Can SAP work with Python?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Python SAP RFC module seems inactive - last (insignificant ) commit 2 years ago - but may serve you:
+Pysaprfc is a wrapper around SAP librfc (librfc32.dll on Windows, librfccm.so or librfc.so on Linux). It uses the excellent ctypes extension package by Thomas Heller to access librfc and to define SAP compatible datatypes. 
+Modern SAP versions go the Web Service way - you could build a SAP Web Service and consume it from Python.
+With SAP NetWeaver, developers can connect applications and data sources to integrate processes using Web services.
+In particular, developers can use one infrastructure to define, implement, and use Web services in an industry standards based way. SAP NetWeaver supports synchronous, asynchronous, stateful and stateless web service models - enabling developers to support different integration scenarios.
+sapnwrfc supports this SAP NetWeaver functionality, supersedes the older RFC SDK, and is actively maintained.
+</t>
+  </si>
+  <si>
+    <t>Step by step tutorial to use SAP. net Connector with VS 2008</t>
+  </si>
+  <si>
     <t>Not answered</t>
   </si>
   <si>
-    <t>Solved (Permanently)</t>
-  </si>
-  <si>
-    <t>How should I start learning about SAP?</t>
-  </si>
-  <si>
-    <t>Solved Remotely (Permanently)</t>
-  </si>
-  <si>
-    <t>Helicopterview of ABAP</t>
-  </si>
-  <si>
-    <t>Not Solved (Too Costly)</t>
-  </si>
-  <si>
-    <t>How to get rows count of internal table in abap?</t>
-  </si>
-  <si>
-    <t>Solved Remotely (Work Around)</t>
-  </si>
-  <si>
-    <t>Can SAP work with Python?</t>
-  </si>
-  <si>
-    <t>Solved (Work Around)</t>
-  </si>
-  <si>
-    <t>Step by step tutorial to use SAP. net Connector with VS 2008</t>
-  </si>
-  <si>
     <t>How do I automate SAP GUI with c#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+This might be necro-threading but I was in a similar situation where I work. We needed SAP GUI Automation for testing purposes that could integrate with the rest of our homegrown automation platform written in C#. I helped create a proposal for one solution that took advantage of a SAP provided library for GUI automation that could be used as the basis for an automation layer for SAP. 
+Does the following file exist on your SAP file installation? x:\Program Files\SAP\FrontEnd\SAPGui\sapfewse.ocx? 
+If so, add it to Visual Studio (or whatever IDE you're using) as a reference. It is basically a class library which contains a bunch of SAP specific objects that will allow you to interact with. It is very effective because it exposes most of what you need from the SAP GUI. We discovered in other attempts that a lot of the objects in SAP were not available. 
+This is an early proof of concept I did. Start SAP with a connection string, enter credentials, navigate to a transaction code. 
+using System;
+using System.Collections.Generic;
+using System.Collections;
+using System.Linq;
+using System.Text;
+using SAPFEWSELib;
+namespace SAPGuiAutomated
+{
+//created a class for the SAP app, connection, and session objects as well as for common methods. 
+    public class SAPActive
+    {
+        public static GuiApplication SapGuiApp { get; set; }
+        public static GuiConnection SapConnection { get; set; }
+        public static GuiSession SapSession { get; set; }
+        public static void openSap(string env)
+        {
+            SAPActive.SapGuiApp = new GuiApplication();
+            string connectString = null;
+            if (env.ToUpper().Equals("DEFAULT"))
+            {
+                connectString = "1.0 Test ERP (DEFAULT)";
+            }
+            else
+            {
+                connectString = env;
+            }
+            SAPActive.SapConnection = SAPActive.SapGuiApp.OpenConnection(connectString, Sync: true); //creates connection
+            SAPActive.SapSession = (GuiSession)SAPActive.SapConnection.Sessions.Item(0); //creates the Gui session off the connection you made
+        }
+        public void login(string myclient, string mylogin, string mypass, string mylang)
+        {
+            GuiTextField client  = (GuiTextField)SAPActive.SapSession.ActiveWindow.FindByName("RSYST-MANDT", "GuiTextField");
+            GuiTextField login  = (GuiTextField)SAPActive.SapSession.ActiveWindow.FindByName("RSYST-BNAME", "GuiTextField");
+            GuiTextField pass  = (GuiTextField)SAPActive.SapSession.ActiveWindow.FindByName("RSYST-BCODE", "GuiPasswordField");
+            GuiTextField language  = (GuiTextField)SAPActive.SapSession.ActiveWindow.FindByName("RSYST-LANGU", "GuiTextField");
+            client.SetFocus();
+            client.text = myclient;
+            login.SetFocus();
+            login.Text = mylogin;
+            pass.SetFocus();
+            pass.Text = mypass;
+            language.SetFocus();
+            language.Text = mylang; 
+            //Press the green checkmark button which is about the same as the enter key 
+            GuiButton btn = (GuiButton)SapSession.FindById("/app/con[0]/ses[0]/wnd[0]/tbar[0]/btn[0]");
+            btn.SetFocus(); 
+            btn.Press();
+        }
+    }
+    //--------------------------//
+    //main method somewhere else 
+    public static void Main(string[] args)
+    {
+        SAPActive.openSAP("my connection string");
+        SAPActive.login("10", "jdoe", "password", "EN");
+        SAPActive.SapSession.StartTransaction("VA03");
+    }
+You're right there is not a lot of documentation on this subject. Below are a few sources that helped me get started
+-Original source of our plan
+http://scn.sap.com/thread/1729689
+-Documentation on the API (For VB and javascript but the general rules and objects are identical). Definitely read the portion on the SAP GUI Runtime hierarchy. It'll answer a lot of questions. 
+http://www.synactive.com/download/sap%20gui%20scripting/sap%20gui%20scripting%20api.pdf
+</t>
   </si>
 </sst>
 </file>
@@ -424,15 +542,15 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -441,15 +559,15 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -458,15 +576,15 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -475,15 +593,15 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -492,15 +610,15 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -509,10 +627,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
